--- a/data/input/static/base_adhoc.xlsx
+++ b/data/input/static/base_adhoc.xlsx
@@ -3016,7 +3016,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD127EE7-F38F-4354-A27B-F0530F375041}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C5452C0-EBC8-4781-8DA6-0EE6A42E560C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
